--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Proc-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Proc-Procr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Procr</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Procr</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1610026666666667</v>
+        <v>0.132605</v>
       </c>
       <c r="H2">
-        <v>0.483008</v>
+        <v>0.397815</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.58909666666667</v>
+        <v>8.306580666666667</v>
       </c>
       <c r="N2">
-        <v>31.76729</v>
+        <v>24.919742</v>
       </c>
       <c r="O2">
-        <v>0.4429067747958885</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="P2">
-        <v>0.4429067747958886</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="Q2">
-        <v>1.704872800924444</v>
+        <v>1.101494129303333</v>
       </c>
       <c r="R2">
-        <v>15.34385520832</v>
+        <v>9.91344716373</v>
       </c>
       <c r="S2">
-        <v>0.4429067747958885</v>
+        <v>0.3680313091984304</v>
       </c>
       <c r="T2">
-        <v>0.4429067747958886</v>
+        <v>0.3680313091984304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1610026666666667</v>
+        <v>0.132605</v>
       </c>
       <c r="H3">
-        <v>0.483008</v>
+        <v>0.397815</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.347042</v>
       </c>
       <c r="O3">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="P3">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="Q3">
-        <v>0.7699706735928888</v>
+        <v>0.6341631681366666</v>
       </c>
       <c r="R3">
-        <v>6.929736062335999</v>
+        <v>5.707468513229999</v>
       </c>
       <c r="S3">
-        <v>0.2000297192515054</v>
+        <v>0.211886649965512</v>
       </c>
       <c r="T3">
-        <v>0.2000297192515054</v>
+        <v>0.211886649965512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1610026666666667</v>
+        <v>0.132605</v>
       </c>
       <c r="H4">
-        <v>0.483008</v>
+        <v>0.397815</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.295736333333332</v>
+        <v>3.901832333333334</v>
       </c>
       <c r="N4">
-        <v>24.887209</v>
+        <v>11.705497</v>
       </c>
       <c r="O4">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201187</v>
       </c>
       <c r="P4">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201188</v>
       </c>
       <c r="Q4">
-        <v>1.335635671630222</v>
+        <v>0.5174024765616667</v>
       </c>
       <c r="R4">
-        <v>12.020721044672</v>
+        <v>4.656622289055</v>
       </c>
       <c r="S4">
-        <v>0.346983122320513</v>
+        <v>0.1728745580804287</v>
       </c>
       <c r="T4">
-        <v>0.346983122320513</v>
+        <v>0.1728745580804287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.132605</v>
+      </c>
+      <c r="H5">
+        <v>0.397815</v>
+      </c>
+      <c r="I5">
+        <v>0.776265286171174</v>
+      </c>
+      <c r="J5">
+        <v>0.776265286171174</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5297876666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.589363</v>
+      </c>
+      <c r="O5">
+        <v>0.03023807626717307</v>
+      </c>
+      <c r="P5">
+        <v>0.03023807626717307</v>
+      </c>
+      <c r="Q5">
+        <v>0.07025249353833334</v>
+      </c>
+      <c r="R5">
+        <v>0.632272441845</v>
+      </c>
+      <c r="S5">
+        <v>0.02347276892680289</v>
+      </c>
+      <c r="T5">
+        <v>0.02347276892680289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.03821933333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.114658</v>
+      </c>
+      <c r="I6">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="J6">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.306580666666667</v>
+      </c>
+      <c r="N6">
+        <v>24.919742</v>
+      </c>
+      <c r="O6">
+        <v>0.4741050717515609</v>
+      </c>
+      <c r="P6">
+        <v>0.4741050717515609</v>
+      </c>
+      <c r="Q6">
+        <v>0.3174719753595556</v>
+      </c>
+      <c r="R6">
+        <v>2.857247778236</v>
+      </c>
+      <c r="S6">
+        <v>0.1060737625531305</v>
+      </c>
+      <c r="T6">
+        <v>0.1060737625531305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.1610026666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.483008</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.2410036666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.7230110000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.01008038363209295</v>
-      </c>
-      <c r="P5">
-        <v>0.01008038363209296</v>
-      </c>
-      <c r="Q5">
-        <v>0.03880223300977778</v>
-      </c>
-      <c r="R5">
-        <v>0.349220097088</v>
-      </c>
-      <c r="S5">
-        <v>0.01008038363209295</v>
-      </c>
-      <c r="T5">
-        <v>0.01008038363209296</v>
+      <c r="G7">
+        <v>0.03821933333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.114658</v>
+      </c>
+      <c r="I7">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="J7">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.782347333333333</v>
+      </c>
+      <c r="N7">
+        <v>14.347042</v>
+      </c>
+      <c r="O7">
+        <v>0.2729564927611473</v>
+      </c>
+      <c r="P7">
+        <v>0.2729564927611473</v>
+      </c>
+      <c r="Q7">
+        <v>0.1827781268484444</v>
+      </c>
+      <c r="R7">
+        <v>1.645003141636</v>
+      </c>
+      <c r="S7">
+        <v>0.06106984279563533</v>
+      </c>
+      <c r="T7">
+        <v>0.06106984279563533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03821933333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.114658</v>
+      </c>
+      <c r="I8">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="J8">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.901832333333334</v>
+      </c>
+      <c r="N8">
+        <v>11.705497</v>
+      </c>
+      <c r="O8">
+        <v>0.2227003592201187</v>
+      </c>
+      <c r="P8">
+        <v>0.2227003592201188</v>
+      </c>
+      <c r="Q8">
+        <v>0.1491254305584445</v>
+      </c>
+      <c r="R8">
+        <v>1.342128875026</v>
+      </c>
+      <c r="S8">
+        <v>0.04982580113969005</v>
+      </c>
+      <c r="T8">
+        <v>0.04982580113969005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03821933333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.114658</v>
+      </c>
+      <c r="I9">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="J9">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5297876666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.589363</v>
+      </c>
+      <c r="O9">
+        <v>0.03023807626717307</v>
+      </c>
+      <c r="P9">
+        <v>0.03023807626717307</v>
+      </c>
+      <c r="Q9">
+        <v>0.02024813142822222</v>
+      </c>
+      <c r="R9">
+        <v>0.182233182854</v>
+      </c>
+      <c r="S9">
+        <v>0.006765307340370186</v>
+      </c>
+      <c r="T9">
+        <v>0.006765307340370187</v>
       </c>
     </row>
   </sheetData>
